--- a/Test Script Template.xlsx
+++ b/Test Script Template.xlsx
@@ -1550,7 +1550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1605,7 +1605,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>updateList()</t>
+          <t>valueChanged(ListSelectionEvent)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1652,247 +1652,6 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>getListLength()</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>handleValueChanged(int)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>updateDataPanel(int)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>addToList(int)</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>valueChanged(ListSelectionEvent)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -2475,7 +2234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2577,6 +2336,61 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>updateDataPanel(int)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -4913,7 +4727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5437,7 +5251,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>setTabIndex(int)</t>
+          <t>setList(ArrayList&lt;String&gt;)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5492,7 +5306,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>setList(ArrayList&lt;String&gt;)</t>
+          <t>getSelectedIndex()</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5511,10 +5325,14 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>setSelectedIndex(int)</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -5531,7 +5349,7 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -5545,14 +5363,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>getSelectedIndex()</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -5568,7 +5382,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>setSelectedIndex(int)</t>
+          <t>clearSelectedIndex()</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5623,7 +5437,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>clearSelectedIndex()</t>
+          <t>setRoomList(String[])</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5678,7 +5492,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>setTopMenuPaneVisible(boolean)</t>
+          <t>setReservationList(String[])</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5733,7 +5547,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>setRoomList(String[])</t>
+          <t>promptAddHotel()</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5788,7 +5602,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>setReservationList(String[])</t>
+          <t>promptAddRoom(int)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5843,7 +5657,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>promptAddHotel()</t>
+          <t>showHotelNameExistsError()</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5898,7 +5712,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>promptAddRoom(int)</t>
+          <t>basePriceUpdateLessThanMinimumError()</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5953,7 +5767,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>showHotelNameExistsError()</t>
+          <t>basePriceUpdateReservationsExistError()</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6008,7 +5822,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>basePriceUpdateLessThanMinimumError()</t>
+          <t>showPriceModifierOutOfBoundsError()</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6063,7 +5877,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>basePriceUpdateReservationsExistError()</t>
+          <t>showPriceModifierReservationsExistError()</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6118,7 +5932,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>showPriceModifierOutOfBoundsError()</t>
+          <t>showRoomCountFullError()</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6173,7 +5987,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>showPriceModifierReservationsExistError()</t>
+          <t>showReservationSuccess()</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -6228,7 +6042,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>showRoomCountFullError()</t>
+          <t>showReservationError(String)</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -6283,7 +6097,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>showReservationSuccess()</t>
+          <t>showCantRemoveRoomWithReservationsError()</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -6338,7 +6152,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>showReservationError(String)</t>
+          <t>showCantRemoveOnlyRoomError()</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6393,7 +6207,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>showCantRemoveRoomWithReservationsError()</t>
+          <t>confirmAction(String)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6440,116 +6254,6 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>showCantRemoveOnlyRoomError()</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>confirmAction(String)</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -7594,7 +7298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7859,7 +7563,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>getCalendarStringForRoom(int)</t>
+          <t>getRoomString(int)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7880,7 +7584,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>getRoomString(int)</t>
+          <t>getReservationString(int)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -7901,7 +7605,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>getReservationString(int)</t>
+          <t>setName(String)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -7920,14 +7624,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>setName(String)</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -7944,7 +7644,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -7958,10 +7658,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>setBasePrice(double)</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -7975,14 +7679,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>setBasePrice(double)</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -7999,7 +7699,7 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -8013,10 +7713,14 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>setPriceModifier(int, double)</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -8030,14 +7734,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>setPriceModifier(int, double)</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -8054,7 +7754,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -8068,10 +7768,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>addRooms(int, int)</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -8085,14 +7789,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>addRooms(int, int)</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -8109,7 +7809,7 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -8123,10 +7823,14 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>removeRoom(int)</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -8140,14 +7844,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>removeRoom(int)</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -8164,7 +7864,7 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -8178,10 +7878,14 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>addReservation(String)</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -8195,14 +7899,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>addReservation(String)</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -8219,7 +7919,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -8233,10 +7933,14 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>removeReservation(int)</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -8250,14 +7954,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>removeReservation(int)</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -8274,7 +7974,7 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -8288,10 +7988,14 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>getRoomName(int)</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -8307,7 +8011,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>getRoomName(int)</t>
+          <t>getRoomNames()</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -8328,7 +8032,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>getRoomNames()</t>
+          <t>getReservationNames()</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -8349,7 +8053,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>getReservationNames()</t>
+          <t>getAvailableRoomCount(int)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -8370,7 +8074,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>getAvailableRoomCount(int)</t>
+          <t>toString()</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8389,14 +8093,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>toString()</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -8413,7 +8113,7 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -8427,10 +8127,14 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>getRoomBasePrice(String)</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -8446,7 +8150,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>getRoomBasePrice(String)</t>
+          <t>getRoomMinimalString(String)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8459,27 +8163,6 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>getRoomMinimalString(String)</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -9982,7 +9665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10058,7 +9741,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>setHotel(Hotel)</t>
+          <t>getGuestName()</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -10077,10 +9760,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>getCheckIn()</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -10094,10 +9781,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>getCheckOut()</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -10113,7 +9804,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>getGuestName()</t>
+          <t>getNightCount()</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -10134,7 +9825,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>setGuestName(String)</t>
+          <t>getTotalPrice()</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -10153,10 +9844,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>setDiscountCode(String)</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -10173,7 +9868,7 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -10187,14 +9882,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>getCheckIn()</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -10210,7 +9901,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>setCheckIn(int)</t>
+          <t>getPriceBreakdown()</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -10229,10 +9920,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>toString()</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -10249,7 +9944,7 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -10263,14 +9958,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>getCheckOut()</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -10286,7 +9977,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>setCheckOut(int)</t>
+          <t>toStringMinimal()</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -10333,234 +10024,6 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>getNightCount()</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>getTotalPrice()</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>setDiscountCode(String)</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>getPriceBreakdown()</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>toString()</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>toStringMinimal()</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -11431,7 +10894,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>setReservationList(String[])</t>
+          <t>getSelectedReservationIndex()</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -11450,10 +10913,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>setManageReservationData(String)</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -11470,7 +10937,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -11484,14 +10951,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>getSelectedReservationIndex()</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -11507,7 +10970,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>setManageReservationData(String)</t>
+          <t>setReservationDataVisible(boolean)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -11562,7 +11025,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>setReservationDataVisible(boolean)</t>
+          <t>clearReservationListSelection()</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -12718,7 +12181,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12993,7 +12456,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>setSelectedRoomIndex(int)</t>
+          <t>clearRoomSelectedIndex()</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -13048,7 +12511,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>clearRoomSelectedIndex()</t>
+          <t>getAvailabilityCalendarRowFromMouse(Point)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -13067,10 +12530,14 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>getAvailabilityCalendarColFromMouse(Point)</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -13084,10 +12551,14 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>clearAvailabilityCalendarSelection()</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -13101,14 +12572,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>getAvailabilityCalendarRowFromMouse(Point)</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -13122,14 +12589,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>getAvailabilityCalendarColFromMouse(Point)</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -13145,7 +12608,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>clearAvailabilityCalendarSelection()</t>
+          <t>setReservationData(String)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -13200,7 +12663,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>setReservationData(String)</t>
+          <t>setReservationDataVisible(boolean)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -13255,7 +12718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>setSelectedReservationIndex(int)</t>
+          <t>clearReservationListSelection()</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -13302,61 +12765,6 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>setReservationDataVisible(boolean)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -13377,7 +12785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14789,6 +14197,61 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>clearReservationListSelection()</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -15442,7 +14905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15780,7 +15243,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>getBookingCalendarDay()</t>
+          <t>getRoomIndex()</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -15801,7 +15264,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>getRoomIndex()</t>
+          <t>setPreview(String)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -15820,14 +15283,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>setPreview(String)</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -15844,7 +15303,7 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -15858,10 +15317,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>getBookingCalendarRowFromMouse(Point)</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -15877,7 +15340,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>getBookingCalendarRowFromMouse(Point)</t>
+          <t>getBookingCalendarColFromMouse(Point)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -15898,7 +15361,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>getBookingCalendarColFromMouse(Point)</t>
+          <t>clearRoomListSelection()</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -15917,14 +15380,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>clearRoomListSelection()</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -15941,7 +15400,7 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -15955,10 +15414,14 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>setDiscountCodeFieldText(String)</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -15972,14 +15435,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>setDiscountCodeFieldText(String)</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -15996,7 +15455,7 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -16010,10 +15469,14 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>setGuestNameFieldText(String)</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -16027,14 +15490,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>setGuestNameFieldText(String)</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -16051,7 +15510,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -16065,10 +15524,14 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>setDetailsVisible(boolean)</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -16082,14 +15545,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>setDetailsVisible(boolean)</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -16106,7 +15565,7 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -16120,10 +15579,14 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>enableCheckInButton()</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -16137,14 +15600,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>enableCheckInButton()</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -16161,7 +15620,7 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -16175,10 +15634,14 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>clearCalendarSelection()</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -16192,14 +15655,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>clearCalendarSelection()</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -16216,7 +15675,7 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -16230,10 +15689,14 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>setListeners(SimulateBookingCalendarListener)</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -16247,14 +15710,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>setListeners(SimulateBookingCalendarListener)</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -16271,7 +15730,7 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -16279,23 +15738,6 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -16316,7 +15758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16536,7 +15978,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>getSelectedSubpanelIndex()</t>
+          <t>setHotelData(String)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -16555,14 +15997,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>setHotelData(String)</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -16579,7 +16017,7 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -16593,10 +16031,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>setAvailabilityData(String)</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -16610,14 +16052,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>setAvailabilityData(String)</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -16634,7 +16072,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -16648,10 +16086,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>getAvailabilityCalendarRowAtPoint(Point)</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -16667,7 +16109,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>getAvailabilityCalendarRowAtPoint(Point)</t>
+          <t>getAvailabilityCalendarColAtPoint(Point)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -16688,7 +16130,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>getAvailabilityCalendarColAtPoint(Point)</t>
+          <t>clearAvailabilityCalendarSelection()</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -16707,14 +16149,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>clearAvailabilityCalendarSelection()</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -16731,7 +16169,7 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -16745,10 +16183,14 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>setRoomData(ArrayList&lt;Integer&gt;)</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -16762,14 +16204,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>setRoomData(ArrayList&lt;Integer&gt;)</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -16786,7 +16224,7 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -16800,10 +16238,14 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>setRoomList(ArrayList&lt;String&gt;)</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -16817,14 +16259,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>setRoomList(ArrayList&lt;String&gt;)</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -16841,7 +16279,7 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -16855,10 +16293,14 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>clearRoomListSelection()</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -16872,14 +16314,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>getSelectedRoomIndex()</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -16893,14 +16331,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>clearRoomListSelection()</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -16914,10 +16348,14 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>setRoomDataVisible(boolean)</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -16934,7 +16372,7 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -16948,14 +16386,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>setSelectedRoomIndex(int)</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -16969,10 +16403,14 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>setReservationList(ArrayList&lt;String&gt;)</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -16989,7 +16427,7 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -17003,14 +16441,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>setRoomDataVisible(boolean)</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -17024,10 +16458,14 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>setReservationData(String)</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -17044,7 +16482,7 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -17058,14 +16496,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>setReservationList(ArrayList&lt;String&gt;)</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -17079,10 +16513,14 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>setReservationDataVisible(boolean)</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -17099,7 +16537,7 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -17113,14 +16551,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>getSelectedReservationIndex()</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -17136,7 +16570,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>setReservationData(String)</t>
+          <t>clearReservationListSelection()</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -17183,116 +16617,6 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>setReservationDataVisible(boolean)</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>setSelectedReservationIndex(int)</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -18629,7 +17953,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>setSelectedIndex(int)</t>
+          <t>clearSelectedIndex()</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -18696,7 +18020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19039,61 +18363,6 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>setSelectedIndex(int)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -19114,7 +18383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19169,7 +18438,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>hasHotels()</t>
+          <t>removeHotel(int)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -19224,7 +18493,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>removeHotel(int)</t>
+          <t>removeReservation(int, int)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -19279,7 +18548,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>removeReservation(int, int)</t>
+          <t>addHotel(String)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -19334,7 +18603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>addHotel(String)</t>
+          <t>renameHotel(String)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -19389,7 +18658,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>renameHotel(String)</t>
+          <t>getHotelNamesAsList()</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -19408,10 +18677,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>getHotelCount()</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -19425,10 +18698,14 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>getReservationCountOnDate(int, int, boolean)</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -19444,7 +18721,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>getHotelNames()</t>
+          <t>getAvailableRoomCount(int, int)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -19465,7 +18742,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>getHotelNamesAsList()</t>
+          <t>getRoomNames(int)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -19486,7 +18763,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>getHotelCount()</t>
+          <t>getHotelString(int)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -19507,7 +18784,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>getReservationCountOnDate(int, int, boolean)</t>
+          <t>getHotelName(int)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -19528,7 +18805,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>getAvailableRoomCount(int, int)</t>
+          <t>getBasePrice(int)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -19549,7 +18826,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>getRoomNames(int)</t>
+          <t>setBasePrice(int, double)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -19568,14 +18845,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>getHotelString(int)</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -19589,14 +18862,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>getHotelName(int)</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -19612,7 +18881,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>getBasePrice(int)</t>
+          <t>getPriceModifier(int, int)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -19633,7 +18902,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>setBasePrice(int, double)</t>
+          <t>setPriceModifier(int, int, double)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -19688,7 +18957,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>getPriceModifier(int, int)</t>
+          <t>getRoomCount(int)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -19709,7 +18978,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>setPriceModifier(int, int, double)</t>
+          <t>getRoomString(int, int)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -19728,10 +18997,14 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>removeRoom(int, int)</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -19748,7 +19021,7 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -19762,14 +19035,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>getRoomCount(int)</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -19785,7 +19054,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>getRoomString(int, int)</t>
+          <t>addReservation(String)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -19804,14 +19073,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>removeRoom(int, int)</t>
-        </is>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -19828,7 +19093,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -19842,10 +19107,14 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>addReservation(ReservationBuilder)</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -19859,14 +19128,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>addReservation(String)</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -19883,7 +19148,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -19897,10 +19162,14 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>getAvailableDatesForRoom(int, int)</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -19916,7 +19185,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>addReservation(ReservationBuilder)</t>
+          <t>addRooms(int, int, int)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -19971,7 +19240,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>getAvailableDatesForRoom(int, int)</t>
+          <t>getReservationBuilder()</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -19992,7 +19261,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>addRooms(int, int, int)</t>
+          <t>getReservationBuilderString()</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -20011,10 +19280,14 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>resetReservationBuilder()</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -20031,7 +19304,7 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -20045,14 +19318,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>getReservationBuilder()</t>
-        </is>
-      </c>
+      <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -20068,7 +19337,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>getReservationBuilderString()</t>
+          <t>getReservationNames(int)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -20089,7 +19358,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>resetReservationBuilder()</t>
+          <t>getReservationString(int, int)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -20108,10 +19377,14 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>getReservationCount(int)</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -20125,10 +19398,14 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>validateDate(int)</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -20142,14 +19419,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>getReservationNames(int)</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -20163,14 +19436,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>getReservationString(int, int)</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -20178,82 +19447,6 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>getReservationCount(int)</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>validateDate(int)</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -20274,7 +19467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20633,7 +19826,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>getAvailableDatesAsCalendarString()</t>
+          <t>toString()</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -20652,14 +19845,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>toString()</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -20676,7 +19865,7 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -20690,10 +19879,14 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>toStringMinimal()</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -20707,14 +19900,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>toStringMinimal()</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -20731,7 +19920,7 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -20739,23 +19928,6 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -20776,7 +19948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21004,7 +20176,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>setRowAndCol(MouseEvent)</t>
+          <t>keyPressed(KeyEvent)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -21059,7 +20231,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>handleSelected(int, int)</t>
+          <t>keyTyped(KeyEvent)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -21114,7 +20286,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>handleClicked(int, int)</t>
+          <t>keyReleased(KeyEvent)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -21169,7 +20341,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>handleReleased(int, int)</t>
+          <t>mouseClicked(MouseEvent)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -21224,7 +20396,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>handleDragged(int, int)</t>
+          <t>mousePressed(MouseEvent)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -21279,7 +20451,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>handleMoved(int, int)</t>
+          <t>mouseReleased(MouseEvent)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -21334,7 +20506,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>handleReleasedOutsideComponent()</t>
+          <t>mouseEntered(MouseEvent)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -21389,7 +20561,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>keyPressed(KeyEvent)</t>
+          <t>mouseExited(MouseEvent)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -21444,7 +20616,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>keyTyped(KeyEvent)</t>
+          <t>mouseDragged(MouseEvent)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -21499,7 +20671,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>keyReleased(KeyEvent)</t>
+          <t>mouseMoved(MouseEvent)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -21546,391 +20718,6 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>mouseClicked(MouseEvent)</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>mousePressed(MouseEvent)</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>mouseReleased(MouseEvent)</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>mouseEntered(MouseEvent)</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>mouseExited(MouseEvent)</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>mouseDragged(MouseEvent)</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>mouseMoved(MouseEvent)</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
         <is>
           <t>P</t>
         </is>

--- a/Test Script Template.xlsx
+++ b/Test Script Template.xlsx
@@ -1672,7 +1672,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1727,7 +1727,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>handleSelected(int, int)</t>
+          <t>setPriceModifierFieldText()</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1782,7 +1782,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>handleClicked(int, int)</t>
+          <t>setModifiedPriceText()</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1837,7 +1837,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>handleDragged(int, int)</t>
+          <t>handleSelected(int, int)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1892,7 +1892,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>handleMoved(int, int)</t>
+          <t>handlePressEnterKey()</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1947,7 +1947,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>handleReleased(int, int)</t>
+          <t>handleClicked(int, int)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2002,7 +2002,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>handleReleasedOutsideComponent()</t>
+          <t>handleDragged(int, int)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2057,7 +2057,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>keyPressed(KeyEvent)</t>
+          <t>handleMoved(int, int)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>actionPerformed(ActionEvent)</t>
+          <t>handleReleased(int, int)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2167,7 +2167,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>setRowAndCol(MouseEvent)</t>
+          <t>handleReleasedOutsideComponent()</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2214,6 +2214,281 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>keyPressed(KeyEvent)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>actionPerformed(ActionEvent)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>updateBasePrice()</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>updatePriceModifier()</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>setRowAndCol(MouseEvent)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -3811,7 +4086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3866,7 +4141,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>submitReservation()</t>
+          <t>resetBookingScreen(boolean)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3921,7 +4196,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>setRowAndCol(MouseEvent)</t>
+          <t>selectedDate(int, int)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3976,7 +4251,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>handleSelected(int, int)</t>
+          <t>submitReservation()</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4031,7 +4306,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>handleClicked(int, int)</t>
+          <t>setRowAndCol(MouseEvent)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4086,7 +4361,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>handleDragged(int, int)</t>
+          <t>handleSelected(int, int)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -4141,7 +4416,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>handleMoved(int, int)</t>
+          <t>handleClicked(int, int)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4196,7 +4471,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>handleReleased(int, int)</t>
+          <t>handleDragged(int, int)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4251,7 +4526,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>handleReleasedOutsideComponent()</t>
+          <t>handleMoved(int, int)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4306,7 +4581,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>keyPressed(KeyEvent)</t>
+          <t>handleReleased(int, int)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4361,7 +4636,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>keyReleased(KeyEvent)</t>
+          <t>handleReleasedOutsideComponent()</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4416,7 +4691,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>actionPerformed(ActionEvent)</t>
+          <t>keyPressed(KeyEvent)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4463,6 +4738,116 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>keyReleased(KeyEvent)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>actionPerformed(ActionEvent)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -7298,7 +7683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8163,6 +8548,27 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>getRoomByName(String)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -9665,7 +10071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9825,7 +10231,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>getTotalPrice()</t>
+          <t>getDiscountCodeModifier(int)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -9846,7 +10252,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>setDiscountCode(String)</t>
+          <t>getPriceForNight(int)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -9865,10 +10271,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>getTotalPrice()</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -9882,10 +10292,14 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>setDiscountCode(String)</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -9899,14 +10313,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>getPriceBreakdown()</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -9920,14 +10330,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>toString()</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -9941,10 +10347,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>getPriceBreakdown()</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -9958,10 +10368,14 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>toString()</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -9975,14 +10389,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>toStringMinimal()</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -9999,7 +10409,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -10013,10 +10423,14 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>toStringMinimal()</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -10024,6 +10438,40 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -10111,7 +10559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10160,6 +10608,61 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>P/F</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>setStyle(Font)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -10312,7 +10815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10361,6 +10864,61 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>P/F</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>setStyle()</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>P</t>
         </is>
       </c>
     </row>
@@ -18383,7 +18941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18438,7 +18996,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>removeHotel(int)</t>
+          <t>getHotel(int)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -18457,10 +19015,14 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>removeHotel(int)</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -18477,7 +19039,7 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -18491,14 +19053,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>removeReservation(int, int)</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -18512,10 +19070,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>removeReservation(int, int)</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -18532,7 +19094,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -18546,14 +19108,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>addHotel(String)</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -18567,10 +19125,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>hotelNameExists(String)</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -18587,7 +19149,7 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -18601,14 +19163,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>renameHotel(String)</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -18622,10 +19180,14 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>addHotel(String)</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -18642,7 +19204,7 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -18656,14 +19218,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>getHotelNamesAsList()</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -18679,7 +19237,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>getHotelCount()</t>
+          <t>renameHotel(String)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -18698,14 +19256,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>getReservationCountOnDate(int, int, boolean)</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -18719,14 +19273,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>getAvailableRoomCount(int, int)</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -18742,7 +19292,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>getRoomNames(int)</t>
+          <t>getHotelNamesAsList()</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -18763,7 +19313,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>getHotelString(int)</t>
+          <t>getHotelCount()</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -18784,7 +19334,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>getHotelName(int)</t>
+          <t>getReservationCountOnDate(int, int, boolean)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -18805,7 +19355,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>getBasePrice(int)</t>
+          <t>getAvailableRoomCount(int, int)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -18826,7 +19376,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>setBasePrice(int, double)</t>
+          <t>getRoomNames(int)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -18845,10 +19395,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>getHotelString(int)</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -18862,10 +19416,14 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>getHotelName(int)</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -18881,7 +19439,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>getPriceModifier(int, int)</t>
+          <t>getBasePrice(int)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -18902,7 +19460,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>setPriceModifier(int, int, double)</t>
+          <t>setBasePrice(int, double)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -18957,7 +19515,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>getRoomCount(int)</t>
+          <t>getPriceModifier(int, int)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -18978,7 +19536,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>getRoomString(int, int)</t>
+          <t>setPriceModifier(int, int, double)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -18997,14 +19555,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>removeRoom(int, int)</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -19021,7 +19575,7 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -19035,10 +19589,14 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>getRoomCount(int)</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -19054,7 +19612,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>addReservation(String)</t>
+          <t>getRoomString(int, int)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -19073,10 +19631,14 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>removeRoom(int, int)</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -19093,7 +19655,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -19107,14 +19669,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>addReservation(ReservationBuilder)</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -19128,10 +19686,14 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>addReservation(String)</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -19148,7 +19710,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -19162,14 +19724,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>getAvailableDatesForRoom(int, int)</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -19185,7 +19743,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>addRooms(int, int, int)</t>
+          <t>addReservation(ReservationBuilder)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -19240,7 +19798,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>getReservationBuilder()</t>
+          <t>getAvailableDatesForRoom(int, int)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -19261,7 +19819,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>getReservationBuilderString()</t>
+          <t>addRooms(int, int, int)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -19280,14 +19838,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>resetReservationBuilder()</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -19304,7 +19858,7 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -19318,10 +19872,14 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>getReservationBuilder()</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -19337,7 +19895,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>getReservationNames(int)</t>
+          <t>getReservationBuilderString()</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -19358,7 +19916,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>getReservationString(int, int)</t>
+          <t>resetReservationBuilder()</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -19377,14 +19935,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>getReservationCount(int)</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -19398,14 +19952,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>validateDate(int)</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -19419,10 +19969,14 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>getReservationNames(int)</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -19436,10 +19990,14 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>getReservationString(int, int)</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -19447,6 +20005,82 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>getReservationCount(int)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>validateDate(int)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>P</t>
         </is>
